--- a/SPOT Model.xlsx
+++ b/SPOT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF005028-484F-BD4D-83E1-C436711CBC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF7905C-D746-D542-8495-2F31D25979AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{20883AFA-DE75-2C42-B3D5-5B5E7067B54B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>Spotfiy</t>
   </si>
@@ -71,6 +71,9 @@
     <t>Finance income</t>
   </si>
   <si>
+    <t>Finance expense</t>
+  </si>
+  <si>
     <t>Finance costs</t>
   </si>
   <si>
@@ -192,6 +195,45 @@
   </si>
   <si>
     <t>Total stockholders' equity</t>
+  </si>
+  <si>
+    <t>1Q23A</t>
+  </si>
+  <si>
+    <t>1Q22A</t>
+  </si>
+  <si>
+    <t>Deferred tax assets</t>
+  </si>
+  <si>
+    <t>Deferred tax liabilities</t>
+  </si>
+  <si>
+    <t>Operating Activities</t>
+  </si>
+  <si>
+    <t>Net income</t>
+  </si>
+  <si>
+    <t>Depreciation of PPE &amp; lease right-of-use assets</t>
+  </si>
+  <si>
+    <t>Amortization of intangible assets</t>
+  </si>
+  <si>
+    <t>Share-based compensation expense</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Changes in working capital</t>
+  </si>
+  <si>
+    <t>Change in trade receivables &amp; other assets</t>
+  </si>
+  <si>
+    <t>Change in trade &amp; other liabilities</t>
   </si>
 </sst>
 </file>
@@ -242,10 +284,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,383 +604,701 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7156EDF-A4AD-1642-922F-4462B51DB22A}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
       <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C2" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="2">
+        <v>2661</v>
+      </c>
       <c r="D5" s="2">
+        <v>3042</v>
+      </c>
+      <c r="H5" s="2">
         <v>7880</v>
       </c>
-      <c r="E5" s="2">
+      <c r="I5" s="2">
         <v>9668</v>
       </c>
-      <c r="F5" s="2">
+      <c r="J5" s="2">
         <v>11727</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="2">
+        <v>1990</v>
+      </c>
       <c r="D6" s="2">
+        <v>2276</v>
+      </c>
+      <c r="H6" s="2">
         <v>5865</v>
       </c>
-      <c r="E6" s="2">
+      <c r="I6" s="2">
         <v>7077</v>
       </c>
-      <c r="F6" s="2">
+      <c r="J6" s="2">
         <v>8801</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="2">
+        <v>250</v>
+      </c>
       <c r="D7" s="2">
+        <v>435</v>
+      </c>
+      <c r="H7" s="2">
         <v>837</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>912</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>1387</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" s="2">
+        <v>296</v>
+      </c>
       <c r="D8" s="2">
+        <v>347</v>
+      </c>
+      <c r="H8" s="2">
         <v>1029</v>
       </c>
-      <c r="E8" s="2">
+      <c r="I8" s="2">
         <v>1135</v>
       </c>
-      <c r="F8" s="2">
+      <c r="J8" s="2">
         <v>1572</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" s="2">
+        <v>131</v>
+      </c>
       <c r="D9" s="2">
+        <v>140</v>
+      </c>
+      <c r="H9" s="2">
         <v>442</v>
       </c>
-      <c r="E9" s="2">
+      <c r="I9" s="2">
         <v>450</v>
       </c>
-      <c r="F9" s="2">
+      <c r="J9" s="2">
         <v>626</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" s="2">
+        <v>175</v>
+      </c>
       <c r="D10" s="2">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2">
         <v>94</v>
       </c>
-      <c r="E10" s="2">
+      <c r="I10" s="2">
         <v>246</v>
       </c>
-      <c r="F10" s="2">
+      <c r="J10" s="2">
         <v>412</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-77</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-510</v>
+      </c>
+      <c r="I11" s="2">
+        <v>-91</v>
+      </c>
+      <c r="J11" s="2">
+        <v>-132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2">
+        <v>19</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-128</v>
+      </c>
+      <c r="I12" s="2">
+        <v>283</v>
+      </c>
+      <c r="J12" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>131</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-225</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-581</v>
+      </c>
+      <c r="I13" s="2">
+        <v>-34</v>
+      </c>
+      <c r="J13" s="2">
+        <v>-430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <v>192.476022</v>
+      </c>
+      <c r="D16" s="2">
+        <v>193.56246200000001</v>
+      </c>
+      <c r="H16" s="2">
+        <v>187.58330699999999</v>
+      </c>
+      <c r="I16" s="2">
+        <v>191.29839699999999</v>
+      </c>
+      <c r="J16" s="2">
+        <v>192.93486200000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2">
+        <v>197.07725600000001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>193.56246200000001</v>
+      </c>
+      <c r="H17" s="2">
+        <v>187.58330699999999</v>
+      </c>
+      <c r="I17" s="2">
+        <v>193943455</v>
+      </c>
+      <c r="J17" s="2">
+        <v>195.846362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2">
-        <v>-510</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-91</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-128</v>
-      </c>
-      <c r="E12" s="2">
-        <v>283</v>
-      </c>
-      <c r="F12" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="2">
-        <v>-581</v>
-      </c>
-      <c r="E13" s="2">
-        <v>-34</v>
-      </c>
-      <c r="F13" s="2">
-        <v>-430</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2">
-        <v>187.58330699999999</v>
-      </c>
-      <c r="E16" s="2">
-        <v>191.29839699999999</v>
-      </c>
-      <c r="F16" s="2">
-        <v>192.93486200000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2">
-        <v>187.58330699999999</v>
-      </c>
-      <c r="E17" s="2">
-        <v>193943455</v>
-      </c>
-      <c r="F17" s="2">
-        <v>195.846362</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="D49">
+        <v>555</v>
+      </c>
+      <c r="J49">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="D51">
+        <v>995</v>
+      </c>
+      <c r="J51">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="D52">
+        <v>2443</v>
+      </c>
+      <c r="J52">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="D53">
+        <v>295</v>
+      </c>
+      <c r="J53">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="D55">
+        <v>413</v>
+      </c>
+      <c r="J55">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="D56" s="4">
+        <v>331</v>
+      </c>
+      <c r="J56">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="D57">
+        <v>1155</v>
+      </c>
+      <c r="J57">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="D58">
+        <v>115</v>
+      </c>
+      <c r="J58">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="D59">
+        <v>1134</v>
+      </c>
+      <c r="J59">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="D60">
+        <v>77</v>
+      </c>
+      <c r="J60">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61">
+        <v>11</v>
+      </c>
+      <c r="J61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="D66">
+        <v>850</v>
+      </c>
+      <c r="J66">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="D67">
+        <v>9</v>
+      </c>
+      <c r="J67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="D68">
+        <v>524</v>
+      </c>
+      <c r="J68">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="D69">
+        <v>2025</v>
+      </c>
+      <c r="J69">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="D70">
+        <v>27</v>
+      </c>
+      <c r="J70">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="D71">
+        <v>24</v>
+      </c>
+      <c r="J71">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74">
+        <v>1156</v>
+      </c>
+      <c r="J74">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="D75">
+        <v>546</v>
+      </c>
+      <c r="J75">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="D76">
+        <v>17</v>
+      </c>
+      <c r="J76">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="J78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="D83">
+        <v>4864</v>
+      </c>
+      <c r="J83">
+        <v>4789</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="D84">
+        <v>-262</v>
+      </c>
+      <c r="J84">
+        <v>-262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="D85">
+        <v>1615</v>
+      </c>
+      <c r="J85">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>51</v>
+      </c>
+      <c r="D86">
+        <v>-3875</v>
+      </c>
+      <c r="J86">
+        <v>-3647</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87">
+        <f>D86+D85+D84+D83</f>
+        <v>2342</v>
+      </c>
+      <c r="J87">
+        <f>J86+J85+J84+J83</f>
+        <v>2401</v>
       </c>
     </row>
   </sheetData>

--- a/SPOT Model.xlsx
+++ b/SPOT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF7905C-D746-D542-8495-2F31D25979AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCF6F85-51B7-6A41-85D0-A61368010C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{20883AFA-DE75-2C42-B3D5-5B5E7067B54B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
   <si>
     <t>Spotfiy</t>
   </si>
@@ -234,6 +234,72 @@
   </si>
   <si>
     <t>Change in trade &amp; other liabilities</t>
+  </si>
+  <si>
+    <t>Change in deferred revenue</t>
+  </si>
+  <si>
+    <t>Change in provisions</t>
+  </si>
+  <si>
+    <t>Interest paid on lease liabilities</t>
+  </si>
+  <si>
+    <t>Interest received</t>
+  </si>
+  <si>
+    <t>Income tax paid</t>
+  </si>
+  <si>
+    <t>Net cash from operating activities</t>
+  </si>
+  <si>
+    <t>Investing Activities</t>
+  </si>
+  <si>
+    <t>Acquistitions net of cash</t>
+  </si>
+  <si>
+    <t>Payment of deferred consideration</t>
+  </si>
+  <si>
+    <t>Purchases of property &amp; equipment</t>
+  </si>
+  <si>
+    <t>Purchases of short-term investments</t>
+  </si>
+  <si>
+    <t>Change in restricted cash</t>
+  </si>
+  <si>
+    <t>Net cash flows used in investing activities</t>
+  </si>
+  <si>
+    <t>Financing activities</t>
+  </si>
+  <si>
+    <t>Proceeds from the exercise of stock options</t>
+  </si>
+  <si>
+    <t>Repurchases of ordinary shares</t>
+  </si>
+  <si>
+    <t>Payments of lease liabilities</t>
+  </si>
+  <si>
+    <t>Lease incentives received</t>
+  </si>
+  <si>
+    <t>Net cash flows from financing activities</t>
+  </si>
+  <si>
+    <t>Net change in cash &amp; cash equivalents</t>
+  </si>
+  <si>
+    <t>Beginning cash &amp; cash equivalents</t>
+  </si>
+  <si>
+    <t>End cash &amp; cash equivalents</t>
   </si>
 </sst>
 </file>
@@ -604,13 +670,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7156EDF-A4AD-1642-922F-4462B51DB22A}">
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,368 +1002,483 @@
         <v>65</v>
       </c>
     </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>19</v>
+      <c r="A47" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>20</v>
+      <c r="A48" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49">
-        <v>555</v>
-      </c>
-      <c r="J49">
-        <v>690</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-      <c r="J50">
-        <v>5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51">
-        <v>995</v>
-      </c>
-      <c r="J51">
-        <v>867</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52">
-        <v>2443</v>
-      </c>
-      <c r="J52">
-        <v>2483</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53">
-        <v>295</v>
-      </c>
-      <c r="J53">
-        <v>307</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55">
-        <v>413</v>
-      </c>
-      <c r="J55">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="4">
-        <v>331</v>
-      </c>
-      <c r="J56">
-        <v>348</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57">
-        <v>1155</v>
-      </c>
-      <c r="J57">
-        <v>1168</v>
+      <c r="A57" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58">
-        <v>115</v>
-      </c>
-      <c r="J58">
-        <v>127</v>
+      <c r="A58" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D59">
-        <v>1134</v>
+        <v>555</v>
       </c>
       <c r="J59">
-        <v>1138</v>
+        <v>690</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D60">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="J60">
-        <v>78</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D61">
-        <v>11</v>
+        <v>995</v>
       </c>
       <c r="J61">
-        <v>8</v>
+        <v>867</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="D62">
+        <v>2443</v>
+      </c>
+      <c r="J62">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63">
+        <v>295</v>
+      </c>
+      <c r="J63">
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>35</v>
+      <c r="A64" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>34</v>
+      <c r="A65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65">
+        <v>413</v>
+      </c>
+      <c r="J65">
+        <v>417</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>36</v>
-      </c>
-      <c r="D66">
-        <v>850</v>
+        <v>28</v>
+      </c>
+      <c r="D66" s="4">
+        <v>331</v>
       </c>
       <c r="J66">
-        <v>845</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D67">
-        <v>9</v>
+        <v>1155</v>
       </c>
       <c r="J67">
-        <v>11</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D68">
-        <v>524</v>
+        <v>115</v>
       </c>
       <c r="J68">
-        <v>520</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D69">
-        <v>2025</v>
+        <v>1134</v>
       </c>
       <c r="J69">
-        <v>2093</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D70">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="J70">
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D71">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J71">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>44</v>
-      </c>
-      <c r="D74">
-        <v>1156</v>
-      </c>
-      <c r="J74">
-        <v>1128</v>
+      <c r="A74" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>39</v>
-      </c>
-      <c r="D75">
-        <v>546</v>
-      </c>
-      <c r="J75">
-        <v>555</v>
+      <c r="A75" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D76">
-        <v>17</v>
+        <v>850</v>
       </c>
       <c r="J76">
-        <v>28</v>
+        <v>845</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J77">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D78">
-        <v>6</v>
+        <v>524</v>
       </c>
       <c r="J78">
-        <v>5</v>
+        <v>520</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="D79">
+        <v>2025</v>
+      </c>
+      <c r="J79">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80">
+        <v>27</v>
+      </c>
+      <c r="J80">
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>46</v>
+      <c r="A81" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81">
+        <v>24</v>
+      </c>
+      <c r="J81">
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>48</v>
-      </c>
-      <c r="D83">
-        <v>4864</v>
-      </c>
-      <c r="J83">
-        <v>4789</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D84">
-        <v>-262</v>
+        <v>1156</v>
       </c>
       <c r="J84">
-        <v>-262</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D85">
-        <v>1615</v>
+        <v>546</v>
       </c>
       <c r="J85">
-        <v>1521</v>
+        <v>555</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D86">
-        <v>-3875</v>
+        <v>17</v>
       </c>
       <c r="J86">
-        <v>-3647</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>56</v>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="J88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>48</v>
+      </c>
+      <c r="D93">
+        <v>4864</v>
+      </c>
+      <c r="J93">
+        <v>4789</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94">
+        <v>-262</v>
+      </c>
+      <c r="J94">
+        <v>-262</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>50</v>
+      </c>
+      <c r="D95">
+        <v>1615</v>
+      </c>
+      <c r="J95">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>51</v>
+      </c>
+      <c r="D96">
+        <v>-3875</v>
+      </c>
+      <c r="J96">
+        <v>-3647</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>52</v>
       </c>
-      <c r="D87">
-        <f>D86+D85+D84+D83</f>
+      <c r="D97">
+        <f>D96+D95+D94+D93</f>
         <v>2342</v>
       </c>
-      <c r="J87">
-        <f>J86+J85+J84+J83</f>
+      <c r="J97">
+        <f>J96+J95+J94+J93</f>
         <v>2401</v>
       </c>
     </row>

--- a/SPOT Model.xlsx
+++ b/SPOT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCF6F85-51B7-6A41-85D0-A61368010C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5D4E58-ABD3-7742-BB91-18AE8A9448C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{20883AFA-DE75-2C42-B3D5-5B5E7067B54B}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
   <si>
-    <t>Spotfiy</t>
-  </si>
-  <si>
     <t>NASDAQ: SPOT</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>End cash &amp; cash equivalents</t>
+  </si>
+  <si>
+    <t>Spotfiy Technology S.A.</t>
   </si>
 </sst>
 </file>
@@ -354,8 +354,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,53 +673,62 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>44651</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>45016</v>
+      </c>
+      <c r="H2" s="4">
+        <v>44196</v>
+      </c>
+      <c r="I2" s="4">
+        <v>44561</v>
+      </c>
+      <c r="J2" s="4">
+        <v>44926</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>2661</v>
@@ -739,7 +748,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
         <v>1990</v>
@@ -759,7 +768,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <v>250</v>
@@ -779,7 +788,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
         <v>296</v>
@@ -799,7 +808,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2">
         <v>131</v>
@@ -819,7 +828,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
         <v>175</v>
@@ -839,7 +848,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
         <v>-14</v>
@@ -859,7 +868,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
         <v>24</v>
@@ -879,7 +888,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2">
         <v>131</v>
@@ -899,12 +908,12 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
         <v>192.476022</v>
@@ -924,7 +933,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2">
         <v>197.07725600000001</v>
@@ -944,192 +953,192 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D59">
         <v>555</v>
@@ -1140,7 +1149,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60">
         <v>5</v>
@@ -1151,7 +1160,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D61">
         <v>995</v>
@@ -1162,7 +1171,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D62">
         <v>2443</v>
@@ -1173,7 +1182,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D63">
         <v>295</v>
@@ -1184,12 +1193,12 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D65">
         <v>413</v>
@@ -1200,9 +1209,9 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="4">
+        <v>27</v>
+      </c>
+      <c r="D66" s="3">
         <v>331</v>
       </c>
       <c r="J66">
@@ -1211,7 +1220,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D67">
         <v>1155</v>
@@ -1222,7 +1231,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D68">
         <v>115</v>
@@ -1233,7 +1242,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D69">
         <v>1134</v>
@@ -1244,7 +1253,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D70">
         <v>77</v>
@@ -1255,7 +1264,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D71">
         <v>11</v>
@@ -1266,22 +1275,22 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D76">
         <v>850</v>
@@ -1292,7 +1301,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D77">
         <v>9</v>
@@ -1303,7 +1312,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D78">
         <v>524</v>
@@ -1314,7 +1323,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D79">
         <v>2025</v>
@@ -1325,7 +1334,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D80">
         <v>27</v>
@@ -1336,7 +1345,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D81">
         <v>24</v>
@@ -1347,17 +1356,17 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D84">
         <v>1156</v>
@@ -1368,7 +1377,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D85">
         <v>546</v>
@@ -1379,7 +1388,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D86">
         <v>17</v>
@@ -1390,7 +1399,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -1401,7 +1410,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D88">
         <v>6</v>
@@ -1412,22 +1421,22 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D93">
         <v>4864</v>
@@ -1438,7 +1447,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D94">
         <v>-262</v>
@@ -1449,7 +1458,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D95">
         <v>1615</v>
@@ -1460,7 +1469,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D96">
         <v>-3875</v>
@@ -1471,7 +1480,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D97">
         <f>D96+D95+D94+D93</f>

--- a/SPOT Model.xlsx
+++ b/SPOT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5D4E58-ABD3-7742-BB91-18AE8A9448C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF8D650-440C-6846-8659-778718BEE23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{20883AFA-DE75-2C42-B3D5-5B5E7067B54B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <t>NASDAQ: SPOT</t>
   </si>
@@ -300,6 +300,15 @@
   </si>
   <si>
     <t>Spotfiy Technology S.A.</t>
+  </si>
+  <si>
+    <t>Total stockholders' equity &amp; liabilities</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Adjustements to reconile net income to net cash flows</t>
   </si>
 </sst>
 </file>
@@ -350,11 +359,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -670,13 +678,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7156EDF-A4AD-1642-922F-4462B51DB22A}">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,19 +713,19 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>44651</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>45016</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>44196</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>44561</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>44926</v>
       </c>
     </row>
@@ -952,7 +960,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -961,6 +969,11 @@
         <v>57</v>
       </c>
     </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>58</v>
@@ -1140,10 +1153,13 @@
       <c r="A59" t="s">
         <v>20</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>555</v>
       </c>
-      <c r="J59">
+      <c r="I59">
+        <v>621</v>
+      </c>
+      <c r="J59" s="2">
         <v>690</v>
       </c>
     </row>
@@ -1151,10 +1167,13 @@
       <c r="A60" t="s">
         <v>21</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <v>5</v>
       </c>
-      <c r="J60">
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60" s="2">
         <v>5</v>
       </c>
     </row>
@@ -1162,10 +1181,13 @@
       <c r="A61" t="s">
         <v>22</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <v>995</v>
       </c>
-      <c r="J61">
+      <c r="I61">
+        <v>756</v>
+      </c>
+      <c r="J61" s="2">
         <v>867</v>
       </c>
     </row>
@@ -1173,10 +1195,13 @@
       <c r="A62" t="s">
         <v>23</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2">
         <v>2443</v>
       </c>
-      <c r="J62">
+      <c r="I62">
+        <v>2744</v>
+      </c>
+      <c r="J62" s="2">
         <v>2483</v>
       </c>
     </row>
@@ -1184,10 +1209,13 @@
       <c r="A63" t="s">
         <v>24</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="2">
         <v>295</v>
       </c>
-      <c r="J63">
+      <c r="I63">
+        <v>246</v>
+      </c>
+      <c r="J63" s="2">
         <v>307</v>
       </c>
     </row>
@@ -1195,15 +1223,30 @@
       <c r="A64" t="s">
         <v>25</v>
       </c>
+      <c r="D64">
+        <f>D62+D63+D61+D60+D59</f>
+        <v>4293</v>
+      </c>
+      <c r="I64">
+        <f>I62+I63+I61+I60+I59</f>
+        <v>4372</v>
+      </c>
+      <c r="J64">
+        <f>J62+J63+J61+J60+J59</f>
+        <v>4352</v>
+      </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>26</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <v>413</v>
       </c>
-      <c r="J65">
+      <c r="I65">
+        <v>437</v>
+      </c>
+      <c r="J65" s="2">
         <v>417</v>
       </c>
     </row>
@@ -1211,10 +1254,13 @@
       <c r="A66" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="2">
         <v>331</v>
       </c>
-      <c r="J66">
+      <c r="I66">
+        <v>372</v>
+      </c>
+      <c r="J66" s="2">
         <v>348</v>
       </c>
     </row>
@@ -1222,10 +1268,13 @@
       <c r="A67" t="s">
         <v>28</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="2">
         <v>1155</v>
       </c>
-      <c r="J67">
+      <c r="I67">
+        <v>894</v>
+      </c>
+      <c r="J67" s="2">
         <v>1168</v>
       </c>
     </row>
@@ -1233,10 +1282,13 @@
       <c r="A68" t="s">
         <v>29</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2">
         <v>115</v>
       </c>
-      <c r="J68">
+      <c r="I68">
+        <v>89</v>
+      </c>
+      <c r="J68" s="2">
         <v>127</v>
       </c>
     </row>
@@ -1244,10 +1296,13 @@
       <c r="A69" t="s">
         <v>30</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="2">
         <v>1134</v>
       </c>
-      <c r="J69">
+      <c r="I69">
+        <v>916</v>
+      </c>
+      <c r="J69" s="2">
         <v>1138</v>
       </c>
     </row>
@@ -1255,10 +1310,13 @@
       <c r="A70" t="s">
         <v>31</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="2">
         <v>77</v>
       </c>
-      <c r="J70">
+      <c r="I70">
+        <v>77</v>
+      </c>
+      <c r="J70" s="2">
         <v>78</v>
       </c>
     </row>
@@ -1266,10 +1324,13 @@
       <c r="A71" t="s">
         <v>54</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="2">
         <v>11</v>
       </c>
-      <c r="J71">
+      <c r="I71">
+        <v>13</v>
+      </c>
+      <c r="J71" s="2">
         <v>8</v>
       </c>
     </row>
@@ -1277,6 +1338,18 @@
       <c r="A72" t="s">
         <v>32</v>
       </c>
+      <c r="D72">
+        <f>D70+D71+D69+D68+D67+D64+D65+D66</f>
+        <v>7529</v>
+      </c>
+      <c r="I72">
+        <f>I70+I71+I69+I68+I67+I64+I65+I66</f>
+        <v>7170</v>
+      </c>
+      <c r="J72">
+        <f>J70+J71+J69+J68+J67+J64+J65+J66</f>
+        <v>7636</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
@@ -1295,6 +1368,9 @@
       <c r="D76">
         <v>850</v>
       </c>
+      <c r="I76">
+        <v>793</v>
+      </c>
       <c r="J76">
         <v>845</v>
       </c>
@@ -1306,6 +1382,9 @@
       <c r="D77">
         <v>9</v>
       </c>
+      <c r="I77">
+        <v>23</v>
+      </c>
       <c r="J77">
         <v>11</v>
       </c>
@@ -1317,6 +1396,9 @@
       <c r="D78">
         <v>524</v>
       </c>
+      <c r="I78">
+        <v>458</v>
+      </c>
       <c r="J78">
         <v>520</v>
       </c>
@@ -1328,6 +1410,9 @@
       <c r="D79">
         <v>2025</v>
       </c>
+      <c r="I79">
+        <v>1841</v>
+      </c>
       <c r="J79">
         <v>2093</v>
       </c>
@@ -1339,6 +1424,9 @@
       <c r="D80">
         <v>27</v>
       </c>
+      <c r="I80">
+        <v>22</v>
+      </c>
       <c r="J80">
         <v>26</v>
       </c>
@@ -1350,6 +1438,9 @@
       <c r="D81">
         <v>24</v>
       </c>
+      <c r="I81">
+        <v>89</v>
+      </c>
       <c r="J81">
         <v>21</v>
       </c>
@@ -1358,64 +1449,88 @@
       <c r="A82" t="s">
         <v>41</v>
       </c>
+      <c r="D82">
+        <f>D81+D76+D77+D78+D79+D80</f>
+        <v>3459</v>
+      </c>
+      <c r="I82">
+        <f>I81+I76+I77+I78+I79+I80</f>
+        <v>3226</v>
+      </c>
+      <c r="J82">
+        <f>J81+J76+J77+J78+J79+J80</f>
+        <v>3516</v>
+      </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>42</v>
       </c>
+      <c r="D83" s="2">
+        <v>1156</v>
+      </c>
+      <c r="I83">
+        <v>1202</v>
+      </c>
+      <c r="J83" s="2">
+        <v>1128</v>
+      </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>43</v>
       </c>
-      <c r="D84">
-        <v>1156</v>
-      </c>
-      <c r="J84">
-        <v>1128</v>
+      <c r="D84" s="2">
+        <v>546</v>
+      </c>
+      <c r="I84">
+        <v>579</v>
+      </c>
+      <c r="J84" s="2">
+        <v>555</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>38</v>
       </c>
-      <c r="D85">
-        <v>546</v>
-      </c>
-      <c r="J85">
-        <v>555</v>
+      <c r="D85" s="2">
+        <v>17</v>
+      </c>
+      <c r="I85">
+        <v>37</v>
+      </c>
+      <c r="J85" s="2">
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>39</v>
       </c>
-      <c r="D86">
-        <v>17</v>
-      </c>
-      <c r="J86">
-        <v>28</v>
+      <c r="D86" s="2">
+        <v>3</v>
+      </c>
+      <c r="I86">
+        <v>7</v>
+      </c>
+      <c r="J86" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>40</v>
       </c>
-      <c r="D87">
-        <v>3</v>
-      </c>
-      <c r="J87">
-        <v>3</v>
-      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>55</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="2">
         <v>6</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="2">
         <v>5</v>
       </c>
     </row>
@@ -1423,6 +1538,18 @@
       <c r="A89" t="s">
         <v>44</v>
       </c>
+      <c r="D89">
+        <f>D82+D88+D83+D84+D85+D86+D87</f>
+        <v>5187</v>
+      </c>
+      <c r="I89">
+        <f>I82+I88+I83+I84+I85+I86+I87</f>
+        <v>5051</v>
+      </c>
+      <c r="J89">
+        <f>J82+J88+J83+J84+J85+J86+J87</f>
+        <v>5235</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
@@ -1438,10 +1565,17 @@
       <c r="A93" t="s">
         <v>47</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="2">
         <v>4864</v>
       </c>
-      <c r="J93">
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2">
+        <v>4746</v>
+      </c>
+      <c r="J93" s="2">
         <v>4789</v>
       </c>
     </row>
@@ -1449,10 +1583,17 @@
       <c r="A94" t="s">
         <v>48</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="2">
         <v>-262</v>
       </c>
-      <c r="J94">
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2">
+        <v>-260</v>
+      </c>
+      <c r="J94" s="2">
         <v>-262</v>
       </c>
     </row>
@@ -1460,10 +1601,17 @@
       <c r="A95" t="s">
         <v>49</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="2">
         <v>1615</v>
       </c>
-      <c r="J95">
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2">
+        <v>853</v>
+      </c>
+      <c r="J95" s="2">
         <v>1521</v>
       </c>
     </row>
@@ -1471,10 +1619,17 @@
       <c r="A96" t="s">
         <v>50</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="2">
         <v>-3875</v>
       </c>
-      <c r="J96">
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2">
+        <v>-3220</v>
+      </c>
+      <c r="J96" s="2">
         <v>-3647</v>
       </c>
     </row>
@@ -1486,9 +1641,47 @@
         <f>D96+D95+D94+D93</f>
         <v>2342</v>
       </c>
+      <c r="I97">
+        <f>I96+I95+I94+I93</f>
+        <v>2119</v>
+      </c>
       <c r="J97">
         <f>J96+J95+J94+J93</f>
         <v>2401</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>88</v>
+      </c>
+      <c r="D98">
+        <f>D89+D97</f>
+        <v>7529</v>
+      </c>
+      <c r="I98">
+        <f>I89+I97</f>
+        <v>7170</v>
+      </c>
+      <c r="J98">
+        <f>J89+J97</f>
+        <v>7636</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>89</v>
+      </c>
+      <c r="D99">
+        <f>D98-D72</f>
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <f>I98-I72</f>
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <f>J98-J72</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SPOT Model.xlsx
+++ b/SPOT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF8D650-440C-6846-8659-778718BEE23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D880BD9-B488-E647-BC4C-CEDEA8BD5BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{20883AFA-DE75-2C42-B3D5-5B5E7067B54B}"/>
   </bookViews>
@@ -315,6 +315,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -359,11 +362,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,10 +686,10 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -923,19 +928,22 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>192.476022</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>193.56246200000001</v>
       </c>
-      <c r="H16" s="2">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4">
         <v>187.58330699999999</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="4">
         <v>191.29839699999999</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="4">
         <v>192.93486200000001</v>
       </c>
     </row>
@@ -943,19 +951,22 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>197.07725600000001</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>193.56246200000001</v>
       </c>
-      <c r="H17" s="2">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4">
         <v>187.58330699999999</v>
       </c>
-      <c r="I17" s="2">
-        <v>193943455</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="I17" s="4">
+        <v>193.943455</v>
+      </c>
+      <c r="J17" s="4">
         <v>195.846362</v>
       </c>
     </row>
@@ -1156,7 +1167,7 @@
       <c r="D59" s="2">
         <v>555</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="2">
         <v>621</v>
       </c>
       <c r="J59" s="2">
@@ -1170,7 +1181,7 @@
       <c r="D60" s="2">
         <v>5</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="2">
         <v>5</v>
       </c>
       <c r="J60" s="2">
@@ -1184,7 +1195,7 @@
       <c r="D61" s="2">
         <v>995</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="2">
         <v>756</v>
       </c>
       <c r="J61" s="2">
@@ -1198,7 +1209,7 @@
       <c r="D62" s="2">
         <v>2443</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="2">
         <v>2744</v>
       </c>
       <c r="J62" s="2">
@@ -1212,7 +1223,7 @@
       <c r="D63" s="2">
         <v>295</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="2">
         <v>246</v>
       </c>
       <c r="J63" s="2">
@@ -1243,7 +1254,7 @@
       <c r="D65" s="2">
         <v>413</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="2">
         <v>437</v>
       </c>
       <c r="J65" s="2">
@@ -1257,7 +1268,7 @@
       <c r="D66" s="2">
         <v>331</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="2">
         <v>372</v>
       </c>
       <c r="J66" s="2">
@@ -1271,7 +1282,7 @@
       <c r="D67" s="2">
         <v>1155</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="2">
         <v>894</v>
       </c>
       <c r="J67" s="2">
@@ -1285,7 +1296,7 @@
       <c r="D68" s="2">
         <v>115</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="2">
         <v>89</v>
       </c>
       <c r="J68" s="2">
@@ -1299,7 +1310,7 @@
       <c r="D69" s="2">
         <v>1134</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="2">
         <v>916</v>
       </c>
       <c r="J69" s="2">
@@ -1313,7 +1324,7 @@
       <c r="D70" s="2">
         <v>77</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="2">
         <v>77</v>
       </c>
       <c r="J70" s="2">
@@ -1327,7 +1338,7 @@
       <c r="D71" s="2">
         <v>11</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="2">
         <v>13</v>
       </c>
       <c r="J71" s="2">
@@ -1365,13 +1376,13 @@
       <c r="A76" t="s">
         <v>35</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="2">
         <v>850</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="2">
         <v>793</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="2">
         <v>845</v>
       </c>
     </row>
@@ -1379,13 +1390,13 @@
       <c r="A77" t="s">
         <v>36</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="2">
         <v>9</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="2">
         <v>23</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="2">
         <v>11</v>
       </c>
     </row>
@@ -1393,13 +1404,13 @@
       <c r="A78" t="s">
         <v>37</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="2">
         <v>524</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="2">
         <v>458</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="2">
         <v>520</v>
       </c>
     </row>
@@ -1407,13 +1418,13 @@
       <c r="A79" t="s">
         <v>38</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="2">
         <v>2025</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="2">
         <v>1841</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="2">
         <v>2093</v>
       </c>
     </row>
@@ -1421,13 +1432,13 @@
       <c r="A80" t="s">
         <v>39</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="2">
         <v>27</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="2">
         <v>22</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="2">
         <v>26</v>
       </c>
     </row>
@@ -1435,13 +1446,13 @@
       <c r="A81" t="s">
         <v>40</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="2">
         <v>24</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="2">
         <v>89</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="2">
         <v>21</v>
       </c>
     </row>
@@ -1469,7 +1480,7 @@
       <c r="D83" s="2">
         <v>1156</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="2">
         <v>1202</v>
       </c>
       <c r="J83" s="2">
@@ -1483,7 +1494,7 @@
       <c r="D84" s="2">
         <v>546</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="2">
         <v>579</v>
       </c>
       <c r="J84" s="2">
@@ -1497,7 +1508,7 @@
       <c r="D85" s="2">
         <v>17</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="2">
         <v>37</v>
       </c>
       <c r="J85" s="2">
@@ -1511,7 +1522,7 @@
       <c r="D86" s="2">
         <v>3</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="2">
         <v>7</v>
       </c>
       <c r="J86" s="2">

--- a/SPOT Model.xlsx
+++ b/SPOT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D880BD9-B488-E647-BC4C-CEDEA8BD5BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF22D17-A5A7-4047-B264-12F7DD0A3F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{20883AFA-DE75-2C42-B3D5-5B5E7067B54B}"/>
   </bookViews>

--- a/SPOT Model.xlsx
+++ b/SPOT Model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF22D17-A5A7-4047-B264-12F7DD0A3F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A4EA5B-D640-904C-9F7B-D01F8A11FC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{20883AFA-DE75-2C42-B3D5-5B5E7067B54B}"/>
   </bookViews>
@@ -686,10 +686,10 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/SPOT Model.xlsx
+++ b/SPOT Model.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evan/Documents/GitHub/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A4EA5B-D640-904C-9F7B-D01F8A11FC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561941DE-3901-C74D-9664-CC7760984B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{20883AFA-DE75-2C42-B3D5-5B5E7067B54B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -316,7 +316,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -367,8 +367,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,10 +686,10 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
